--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="108">
   <si>
     <t>收录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SP姑获鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>破势</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -185,18 +181,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SP面灵气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海月火玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>因幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -261,83 +249,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2-头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-稀有暴爆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13456-提速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-主攻副输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-主速副命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-主命副命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-主速副攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>246-主攻副攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-主速副治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-主生副治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-主速副输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46-主生副速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26-主生副命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-主生副输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>246-主生副攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135-输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135-命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135-攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135-治疗</t>
+    <t>首领胧车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涂佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因幡辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空相面灵气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待宵姑获鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麓铭大岳丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝎女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帝释天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空相面灵气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫</t>
+  </si>
+  <si>
+    <t>火灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海月火玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土蜘蛛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要满暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六道之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>久次良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲤鱼精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃鹿御前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗念火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼灵歌妓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真八岐大蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八岐大蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神堕八岐大蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不见岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出世螺</t>
+  </si>
+  <si>
+    <t>魅妖</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
+    <t>木魅</t>
+  </si>
+  <si>
+    <t>日女巳时</t>
+  </si>
+  <si>
+    <t>反枕</t>
+  </si>
+  <si>
+    <t>雪幽魂</t>
+  </si>
+  <si>
+    <t>散件防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,15 +773,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -711,612 +816,1223 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
       </c>
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
-      </c>
       <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>22</v>
-      </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H22" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
-        <v>15</v>
-      </c>
       <c r="I23" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>68</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1324,7 +2040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1335,652 +2053,188 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="1">
-        <v>44868.517824074072</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="1">
-        <v>44868.517824074072</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>78</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" t="s">
-        <v>30</v>
-      </c>
-      <c r="C58" s="1">
-        <v>44868.523506944446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="1">
-        <v>44868.523506944446</v>
-      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
     <sheet name="强化方案" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">强化方案!$A$1:$C$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">御魂方案!$A$1:$J$79</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="171">
   <si>
     <t>收录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -249,6 +253,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2-头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-稀有暴爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13456-提速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-主命副命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246-主攻副攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-主生副速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-主生副命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246-主生副攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>首领胧车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +349,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>缘结神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>须佐之男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>麓铭大岳丸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>真八岐大蛇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -442,6 +518,186 @@
   </si>
   <si>
     <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼狱茨木童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域鬼王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铃彦姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饭笥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱花妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉藻前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝吹坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追月神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>於菊虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部-因幡爆伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246-主防副防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出世螺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅妖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木魅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日女巳时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪幽魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246-主攻副输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-主生副治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-主生副生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-主攻副命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日轮之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界突破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜溟彼岸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤魂鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道馆挂机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP雪女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木魅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-主生副输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +1029,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G56" sqref="G56:I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -785,7 +1042,7 @@
     <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -813,340 +1070,340 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
         <v>107</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
         <v>107</v>
       </c>
-      <c r="G2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
@@ -1161,47 +1418,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -1221,13 +1478,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -1236,53 +1496,56 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>12</v>
@@ -1294,50 +1557,50 @@
         <v>26</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1354,36 +1617,39 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -1392,71 +1658,68 @@
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
         <v>14</v>
@@ -1464,13 +1727,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
         <v>12</v>
@@ -1479,149 +1742,149 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
         <v>47</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
         <v>31</v>
       </c>
-      <c r="G29" t="s">
-        <v>31</v>
-      </c>
       <c r="H29" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s">
         <v>14</v>
@@ -1629,39 +1892,39 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I32" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1670,366 +1933,1270 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s">
-        <v>74</v>
-      </c>
-      <c r="J35" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" t="s">
         <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="J41" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
         <v>76</v>
       </c>
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G42" t="s">
-        <v>68</v>
-      </c>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I42" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
         <v>95</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="H45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>93</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>87</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+      <c r="I48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" t="s">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>104</v>
+      </c>
+      <c r="H50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F51" t="s">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H51" t="s">
+        <v>93</v>
+      </c>
+      <c r="I51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" t="s">
+        <v>93</v>
+      </c>
+      <c r="I52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>93</v>
+      </c>
+      <c r="I54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s">
+        <v>87</v>
+      </c>
+      <c r="H56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+      <c r="I58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" t="s">
+        <v>89</v>
+      </c>
+      <c r="E59" t="s">
+        <v>87</v>
+      </c>
+      <c r="F59" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>87</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>76</v>
+      </c>
+      <c r="H64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>142</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>142</v>
+      </c>
+      <c r="B66" t="s">
         <v>85</v>
       </c>
-      <c r="H46" t="s">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s">
-        <v>74</v>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+      <c r="F66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" t="s">
+        <v>87</v>
+      </c>
+      <c r="F68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" t="s">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+      <c r="I70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" t="s">
+        <v>104</v>
+      </c>
+      <c r="H71" t="s">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" t="s">
+        <v>76</v>
+      </c>
+      <c r="H72" t="s">
+        <v>93</v>
+      </c>
+      <c r="I72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B73" t="s">
+        <v>114</v>
+      </c>
+      <c r="C73" t="s">
+        <v>111</v>
+      </c>
+      <c r="E73" t="s">
+        <v>100</v>
+      </c>
+      <c r="F73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" t="s">
+        <v>76</v>
+      </c>
+      <c r="H73" t="s">
+        <v>93</v>
+      </c>
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" t="s">
+        <v>103</v>
+      </c>
+      <c r="G74" t="s">
+        <v>76</v>
+      </c>
+      <c r="H74" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" t="s">
+        <v>76</v>
+      </c>
+      <c r="H75" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" t="s">
+        <v>165</v>
+      </c>
+      <c r="E78" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>93</v>
+      </c>
+      <c r="I78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s">
+        <v>76</v>
+      </c>
+      <c r="H79" t="s">
+        <v>93</v>
+      </c>
+      <c r="I79" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J79"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2038,10 +3205,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2063,180 +3230,1349 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="A11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C14" s="1"/>
+      <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="1"/>
+      <c r="A16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>156</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" t="s">
+        <v>47</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>170</v>
+      </c>
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>151</v>
+      </c>
+      <c r="C83" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C94" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>70</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>71</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>72</v>
+      </c>
+      <c r="B113" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>72</v>
+      </c>
+      <c r="B114" t="s">
+        <v>101</v>
+      </c>
+      <c r="C114" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>72</v>
+      </c>
+      <c r="B115" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>72</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B117" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>73</v>
+      </c>
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>73</v>
+      </c>
+      <c r="B120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C120" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>161</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="1">
+        <v>44868.642800925925</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C123"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mumuyys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057E6E12-AD0A-4FDC-B024-066072E0DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11910"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
@@ -704,7 +705,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1028,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,13 +1037,13 @@
       <selection pane="bottomLeft" activeCell="G56" sqref="G56:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1075,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -1282,7 +1283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1390,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1447,7 +1448,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1505,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -1699,7 +1700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>36</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +1833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1916,7 +1917,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>53</v>
       </c>
@@ -2029,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -2298,7 +2299,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>110</v>
       </c>
@@ -2382,7 +2383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>110</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -2437,7 +2438,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -2492,7 +2493,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>128</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>130</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>137</v>
       </c>
@@ -2660,7 +2661,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>137</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>137</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>137</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>137</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>142</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>142</v>
       </c>
@@ -2848,7 +2849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>142</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>162</v>
       </c>
@@ -2958,7 +2959,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>162</v>
       </c>
@@ -2984,7 +2985,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>163</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>163</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>163</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>167</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>167</v>
       </c>
@@ -3169,7 +3170,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>167</v>
       </c>
@@ -3196,7 +3197,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J79"/>
+  <autoFilter ref="A1:J79" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3204,21 +3205,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9140625" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -3273,7 +3274,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>147</v>
       </c>
@@ -3284,7 +3285,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>147</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>147</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>147</v>
       </c>
@@ -3339,7 +3340,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>147</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -3394,7 +3395,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>155</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>155</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>155</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>155</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>155</v>
       </c>
@@ -3526,7 +3527,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>155</v>
       </c>
@@ -3537,7 +3538,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -3548,7 +3549,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3570,7 +3571,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -3581,7 +3582,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -3592,7 +3593,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3614,7 +3615,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -3658,7 +3659,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>63</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -3724,7 +3725,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>64</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3768,7 +3769,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>156</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>156</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -3867,7 +3868,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -3889,7 +3890,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3933,7 +3934,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>170</v>
       </c>
@@ -3955,7 +3956,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>170</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>170</v>
       </c>
@@ -3977,7 +3978,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>170</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -4032,7 +4033,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -4043,7 +4044,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -4054,7 +4055,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>158</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>159</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>160</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -4109,7 +4110,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>160</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>160</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>160</v>
       </c>
@@ -4153,7 +4154,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>160</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>160</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -4197,7 +4198,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>160</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>70</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -4241,7 +4242,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>70</v>
       </c>
@@ -4252,7 +4253,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>70</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>70</v>
       </c>
@@ -4274,7 +4275,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>70</v>
       </c>
@@ -4285,7 +4286,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -4296,7 +4297,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>70</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>70</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>70</v>
       </c>
@@ -4329,7 +4330,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>70</v>
       </c>
@@ -4340,7 +4341,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>70</v>
       </c>
@@ -4351,7 +4352,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -4362,7 +4363,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -4373,7 +4374,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>71</v>
       </c>
@@ -4384,7 +4385,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>72</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>72</v>
       </c>
@@ -4417,7 +4418,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>72</v>
       </c>
@@ -4428,7 +4429,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>72</v>
       </c>
@@ -4439,7 +4440,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>72</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>72</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>72</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>72</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>72</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>73</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>73</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>73</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>73</v>
       </c>
@@ -4549,7 +4550,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>161</v>
       </c>
@@ -4560,7 +4561,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>161</v>
       </c>
@@ -4572,7 +4573,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C123"/>
+  <autoFilter ref="A1:C123" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mumuyys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF7AB4-F0E7-45A6-B5DF-7431AF02CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="23040" windowHeight="13560"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
     <sheet name="强化方案" sheetId="2" r:id="rId2"/>
+    <sheet name="御魂介绍" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">强化方案!$A$1:$C$123</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">御魂方案!$A$1:$J$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">强化方案!$A$1:$C$182</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">御魂方案!$A$1:$J$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">御魂介绍!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="359">
   <si>
     <t>收录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六道之门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>千姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>46-主生副生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26-主攻副命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,26 +751,612 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阴界之门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铃彦姬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱花妖</t>
+    <t>六道之门酒吞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六道之门椒图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时打阴界之门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒吞童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缚姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不知火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匣中少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日女已时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涅槃之火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP山风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青女房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼童丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返魂香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一目连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星熊童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薙魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御馔津</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼岸花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>246-主生副生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-主抵副生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝠翼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白藏主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地藏像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-主攻副治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP玉藻前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑童子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇墓兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网切</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶楼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共潜</t>
+  </si>
+  <si>
+    <t>针女</t>
+  </si>
+  <si>
+    <t>共潜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辉夜姬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚌精</t>
+  </si>
+  <si>
+    <t>云外镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火灵</t>
+  </si>
+  <si>
+    <t>梦寻山兔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日和坊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>树妖</t>
+  </si>
+  <si>
+    <t>镜姬</t>
+  </si>
+  <si>
+    <t>伤魂鸟</t>
+  </si>
+  <si>
+    <t>涂佛</t>
+  </si>
+  <si>
+    <t>破势</t>
+  </si>
+  <si>
+    <t>荒骷髅</t>
+  </si>
+  <si>
+    <t>贝吹坊</t>
+  </si>
+  <si>
+    <t>心眼</t>
+  </si>
+  <si>
+    <t>狂骨</t>
+  </si>
+  <si>
+    <t>海月火玉</t>
+  </si>
+  <si>
+    <t>土蜘蛛</t>
+  </si>
+  <si>
+    <t>胧车</t>
+  </si>
+  <si>
+    <t>遗念火</t>
+  </si>
+  <si>
+    <t>蜃气楼</t>
+  </si>
+  <si>
+    <t>轮入道</t>
+  </si>
+  <si>
+    <t>阴摩罗</t>
+  </si>
+  <si>
+    <t>青女房</t>
+  </si>
+  <si>
+    <t>返魂香</t>
+  </si>
+  <si>
+    <t>钟灵</t>
+  </si>
+  <si>
+    <t>涅槃之火</t>
+  </si>
+  <si>
+    <t>蝠翼</t>
+  </si>
+  <si>
+    <t>地藏像</t>
+  </si>
+  <si>
+    <t>镇墓兽</t>
+  </si>
+  <si>
+    <t>网切</t>
+  </si>
+  <si>
+    <t>恶楼</t>
+  </si>
+  <si>
+    <t>2-主速副辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-主生副辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-主爆伤副辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-主速副速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-主防副速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-主生副速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-主攻副速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26-主生副抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-主抗副抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135-抵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御魂名称</t>
+  </si>
+  <si>
+    <t>2件套效果</t>
+  </si>
+  <si>
+    <t>4件套效果</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击加成15%</t>
+  </si>
+  <si>
+    <t>携带者回合开始可获得一层可以抵挡一次伤害的贝甲，贝甲存在时提高25%的伤害</t>
+  </si>
+  <si>
+    <t>兵主部</t>
+  </si>
+  <si>
+    <t>回合结束时，获得一层兵刃（增益，状态）。每层将在造成伤害时无视目标75点防御，上限3层</t>
+  </si>
+  <si>
+    <t>造成伤害时，每拥有一点鬼火，提升8%伤害</t>
+  </si>
+  <si>
+    <t>击杀单位时会获得3点鬼火</t>
+  </si>
+  <si>
+    <t>造成伤害时，目标生命比例每降低15%，提升10%伤害</t>
+  </si>
+  <si>
+    <t>鸣屋</t>
+  </si>
+  <si>
+    <t>攻击时，若目标带有控制效果，提升45%伤害。</t>
+  </si>
+  <si>
+    <t>狰</t>
+  </si>
+  <si>
+    <t>携带者受到伤害时，有35%的概率用普通攻击进行反击，对被嘲讽的目标概率降低60%</t>
+  </si>
+  <si>
+    <t>回合结束时，有20%的概率获得新的回合</t>
+  </si>
+  <si>
+    <t>造成伤害时，附带20%吸血</t>
+  </si>
+  <si>
+    <t>暴击15%</t>
+  </si>
+  <si>
+    <t>鬼火或愿力足够时，施放妖术额外消耗一点鬼火或愿力并提升40%伤害</t>
+  </si>
+  <si>
+    <t>首次受到致命伤害时，移除所有增益和减益，回复100%生命并是自己冰封一回合，期间提升100%防御、免疫所有减益。若冰封结束时仍存活，则再次回复100%生命，每回目仅触发一次</t>
+  </si>
+  <si>
+    <t>暴击时，有40%的概率对目标造成其生命上限10%的无视防御伤害，最高不超过自身攻击120%</t>
+  </si>
+  <si>
+    <t>生命比例每降低1%，提升暴击伤害的0.5%</t>
+  </si>
+  <si>
+    <t>造成伤害时，若目标生命比例高于70%，提升40%伤害</t>
+  </si>
+  <si>
+    <t>任一非怪物目标阵亡时，治疗自身生命上限20%的生命，并提升20%伤害(上限120%)直到战斗结束</t>
+  </si>
+  <si>
+    <t>攻击时，50%概率无视45%的防御</t>
+  </si>
+  <si>
+    <t>三味</t>
+  </si>
+  <si>
+    <t>任一友方承受控制效果和放逐时，使其提升30点速度，持续2回合，此增益效果不可驱散，可叠加2层</t>
+  </si>
+  <si>
+    <t>生命加成15%</t>
+  </si>
+  <si>
+    <t>战斗开始时，获得恶楼之力（增伤80%、减伤80%）。在携带者的前8回合，恶楼之力暂时被封禁</t>
+  </si>
+  <si>
+    <t>唯一效果。回合结束时，若本回合普攻或无法动作，使全体友方提升15%效果抵抗、伤害，维持两回合，自身提升双倍。</t>
+  </si>
+  <si>
+    <t>治疗时，增加20%(若目标生命低于20%，改为增加50%)基础治疗</t>
+  </si>
+  <si>
+    <t>雉魂</t>
+  </si>
+  <si>
+    <t>唯一效果。友方被攻击时50%概率守护，使其中的单体伤害降低20%，再分担50%，直到攻击结束，每次攻击最多触发一次。</t>
+  </si>
+  <si>
+    <t>造成伤害时，有10%基础概率使目标眩晕1回合。若敌方无人处于眩晕中，则基础概率改为20%</t>
+  </si>
+  <si>
+    <t>受到伤害时，有30%的概率造成100%反伤，对被嘲讽的目标降低60%触发概率</t>
+  </si>
+  <si>
+    <t>被服</t>
+  </si>
+  <si>
+    <t>30%减伤</t>
+  </si>
+  <si>
+    <t>行动结束时，若生命比例低于30%，治疗生命上限15%的生命</t>
+  </si>
+  <si>
+    <t>受到暴击时，自身100%、友方30%概率获得一回合护盾，能吸收10%生命上限伤害；对被嘲讽的目标降低60%触发概率。</t>
+  </si>
+  <si>
+    <t>防御加成30%</t>
+  </si>
+  <si>
+    <t>每次受到伤害后恢复该伤害10%的生命值。在战斗开始与自身行动前获得螺壳（上限一层），单次受到超过最大生命值的60%的伤害时，将该次伤害降低为最大生命值的60%，并移除螺壳</t>
+  </si>
+  <si>
+    <t>造成伤害时，有25%基础概率使目标混乱1回合</t>
+  </si>
+  <si>
+    <t>治疗时，目标获得不可驱散的护盾2回合，能吸收等同基础治疗30%的伤害</t>
+  </si>
+  <si>
+    <t>任何友方受到伤害时，有25%的概率削减伤害者一点鬼火，单次攻击内最多触发一次；对被嘲讽目标降低60%触发概率</t>
+  </si>
+  <si>
+    <t>造成伤害时，有20%的概率击退目标30%的行动条，对带有增益状态、印记的单位触发概率提升10%</t>
+  </si>
+  <si>
+    <t>造成伤害时，有23%基础概率使目标沉睡一回合</t>
+  </si>
+  <si>
+    <t>回合开始时，有50%的概率获得2点鬼火</t>
+  </si>
+  <si>
+    <t>造成伤害时，有15%(若目标带有减速效果则为30%)基础概率冰冻1回合；受到攻击时，使攻击者减速30点，持续1回合</t>
+  </si>
+  <si>
+    <t>效果命中15%</t>
+  </si>
+  <si>
+    <t>携带者回合开始获得一层念火（上限三层），每层提供15效果抵抗，携带者释放技能时优先消耗自身念火替代等量鬼火</t>
+  </si>
+  <si>
+    <t>飞缘魔</t>
+  </si>
+  <si>
+    <t>附加负面状态时，无视30%总效果抵抗</t>
+  </si>
+  <si>
+    <t>战斗开始时，友方全体获得无法驱散的护盾一回合，能吸收等同生命上限10%的伤害</t>
+  </si>
+  <si>
+    <t>战斗开始时，获得3点鬼火</t>
+  </si>
+  <si>
+    <t>效果抵抗15%</t>
+  </si>
+  <si>
+    <t>幽谷响</t>
+  </si>
+  <si>
+    <t>抵抗控制效果时有50%的概率将效果反弹给来源目标，且必定命中</t>
+  </si>
+  <si>
+    <t>受到伤害时有25%基础概率眩晕目标1回合，对被嘲讽的目标降低60%触发概率</t>
+  </si>
+  <si>
+    <t>骰子鬼</t>
+  </si>
+  <si>
+    <t>抵抗时，使用普通攻击反击来源目标，该次反击提升50%伤害。承受控制效果时，增加25%行动条</t>
+  </si>
+  <si>
+    <t>魍魉之匣</t>
+  </si>
+  <si>
+    <t>造成伤害时，有25%基础概率随机附加沉默、眩晕、减疗40%、混乱，持续1回合</t>
+  </si>
+  <si>
+    <t>随机属性加成</t>
+  </si>
+  <si>
+    <t>唯一被动，每对怪物造成5次伤害后，下一次对怪物造成伤害时，将会对其造成生命上限20%的无视防御伤害，最高不超过自身攻击的255%</t>
+  </si>
+  <si>
+    <t>唯一被动，与怪物的战斗开始时，获得一个可以免疫1次任何控制效果的护盾，护盾在消失后5回合重新激活</t>
+  </si>
+  <si>
+    <t>地震鲶</t>
+  </si>
+  <si>
+    <t>唯一被动，怪物战斗开始时，获得减伤60%，每次受到攻击会使6%的减免转化为1.5%的伤害增益，多段攻击仅触发一次</t>
+  </si>
+  <si>
+    <t>唯一被动，提升10%对怪物伤害，若受到怪物伤害，提升伤害效果改为25%，持续1回合</t>
+  </si>
+  <si>
+    <t>唯一被动， 受到怪物攻击时，携带者有50%概率增加自身30%行动条</t>
+  </si>
+  <si>
+    <t>唯一被动，对怪物造成伤害时，为其附加1层土蜘蛛印记，降低10%速度，并造成10%间接伤害，持续1回合，上限3层</t>
+  </si>
+  <si>
+    <t>排序</t>
+  </si>
+  <si>
+    <t>散件</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>回合结束时随机驱散己方1个负面状态，若回合中未造成伤害，则额外随机驱散机房2个负面状态</t>
+  </si>
+  <si>
+    <t>来源2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业原火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日轮之陨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永生之海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -791,12 +1372,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -813,11 +1400,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,21 +1692,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,307 +1735,307 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
         <v>122</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H2" t="s">
         <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
         <v>122</v>
       </c>
-      <c r="B3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
         <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
         <v>122</v>
       </c>
-      <c r="B6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="s">
-        <v>123</v>
-      </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
         <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
         <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
         <v>122</v>
       </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E10" t="s">
-        <v>123</v>
-      </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
         <v>122</v>
       </c>
-      <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
         <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1460,18 +2053,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1489,18 +2082,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1518,7 +2111,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1547,18 +2140,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1576,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1605,7 +2198,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1631,7 +2224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1660,7 +2253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +2279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1715,7 +2308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +2337,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1770,7 +2363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -1796,7 +2389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1822,7 +2415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1848,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1877,7 +2470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1903,7 +2496,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1932,7 +2525,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -1961,7 +2554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +2580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2013,7 +2606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2042,7 +2635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2071,7 +2664,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2100,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2126,7 +2719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2152,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2178,7 +2771,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2204,7 +2797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2233,7 +2826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2262,18 +2855,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" t="s">
         <v>93</v>
-      </c>
-      <c r="B43" t="s">
-        <v>94</v>
       </c>
       <c r="C43" t="s">
         <v>88</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
         <v>86</v>
@@ -2288,18 +2881,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
         <v>86</v>
@@ -2314,53 +2907,53 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" t="s">
         <v>101</v>
       </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>102</v>
-      </c>
-      <c r="G45" t="s">
-        <v>103</v>
       </c>
       <c r="H45" t="s">
         <v>76</v>
       </c>
       <c r="I45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>105</v>
       </c>
-      <c r="D46" t="s">
-        <v>106</v>
-      </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
         <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H46" t="s">
         <v>92</v>
@@ -2369,18 +2962,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E47" t="s">
         <v>86</v>
@@ -2389,7 +2982,7 @@
         <v>86</v>
       </c>
       <c r="G47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
         <v>92</v>
@@ -2398,12 +2991,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
       </c>
       <c r="C48" t="s">
         <v>88</v>
@@ -2424,73 +3017,73 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
         <v>108</v>
       </c>
-      <c r="B49" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H49" t="s">
         <v>76</v>
       </c>
       <c r="I49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" t="s">
-        <v>103</v>
       </c>
       <c r="H50" t="s">
         <v>76</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>86</v>
@@ -2508,15 +3101,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
         <v>86</v>
@@ -2525,7 +3118,7 @@
         <v>86</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H52" t="s">
         <v>92</v>
@@ -2534,21 +3127,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="s">
-        <v>125</v>
-      </c>
       <c r="C53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
         <v>86</v>
@@ -2563,18 +3156,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
         <v>126</v>
       </c>
-      <c r="B54" t="s">
-        <v>127</v>
-      </c>
       <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
         <v>105</v>
-      </c>
-      <c r="D54" t="s">
-        <v>106</v>
       </c>
       <c r="E54" t="s">
         <v>86</v>
@@ -2592,18 +3185,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" t="s">
         <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E55" t="s">
         <v>86</v>
@@ -2621,21 +3214,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" t="s">
         <v>128</v>
       </c>
-      <c r="B56" t="s">
-        <v>129</v>
-      </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
         <v>86</v>
@@ -2649,19 +3242,22 @@
       <c r="I56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
         <v>86</v>
@@ -2678,39 +3274,45 @@
       <c r="I57" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
         <v>131</v>
       </c>
-      <c r="C58" t="s">
-        <v>132</v>
-      </c>
       <c r="E58" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" t="s">
         <v>102</v>
       </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>103</v>
       </c>
-      <c r="H58" t="s">
-        <v>104</v>
-      </c>
       <c r="I58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="J58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
         <v>135</v>
-      </c>
-      <c r="B59" t="s">
-        <v>136</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
@@ -2731,15 +3333,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60" t="s">
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E60" t="s">
         <v>86</v>
@@ -2757,15 +3359,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
         <v>86</v>
@@ -2783,18 +3385,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E62" t="s">
         <v>86</v>
@@ -2812,18 +3414,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
         <v>86</v>
@@ -2841,9 +3443,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
         <v>85</v>
@@ -2867,12 +3469,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" t="s">
         <v>140</v>
-      </c>
-      <c r="B65" t="s">
-        <v>141</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
@@ -2881,7 +3483,7 @@
         <v>86</v>
       </c>
       <c r="F65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G65" t="s">
         <v>86</v>
@@ -2890,12 +3492,12 @@
         <v>76</v>
       </c>
       <c r="I65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B66" t="s">
         <v>84</v>
@@ -2919,15 +3521,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s">
         <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
         <v>86</v>
@@ -2945,12 +3547,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C68" t="s">
         <v>39</v>
@@ -2974,67 +3576,67 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" t="s">
         <v>105</v>
       </c>
-      <c r="D69" t="s">
-        <v>106</v>
-      </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H69" t="s">
         <v>76</v>
       </c>
       <c r="I69" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B70" t="s">
         <v>80</v>
       </c>
       <c r="C70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" t="s">
         <v>101</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" t="s">
         <v>102</v>
       </c>
-      <c r="F70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>103</v>
       </c>
-      <c r="H70" t="s">
-        <v>104</v>
-      </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" t="s">
         <v>88</v>
@@ -3043,30 +3645,30 @@
         <v>86</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H71" t="s">
         <v>76</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B72" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" t="s">
         <v>105</v>
-      </c>
-      <c r="D72" t="s">
-        <v>106</v>
       </c>
       <c r="E72" t="s">
         <v>86</v>
@@ -3084,18 +3686,18 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F73" t="s">
         <v>86</v>
@@ -3110,21 +3712,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74" t="s">
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
         <v>75</v>
@@ -3136,21 +3738,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75" t="s">
         <v>77</v>
       </c>
       <c r="C75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75" t="s">
         <v>101</v>
       </c>
-      <c r="E75" t="s">
-        <v>102</v>
-      </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
         <v>75</v>
@@ -3159,18 +3761,18 @@
         <v>76</v>
       </c>
       <c r="I75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
         <v>161</v>
-      </c>
-      <c r="B76" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>163</v>
       </c>
       <c r="E76" t="s">
         <v>86</v>
@@ -3188,18 +3790,18 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
         <v>165</v>
       </c>
-      <c r="B77" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
         <v>86</v>
@@ -3214,21 +3816,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
         <v>75</v>
@@ -3240,15 +3842,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E79" t="s">
         <v>86</v>
@@ -3266,27 +3868,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
         <v>169</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D80" t="s">
         <v>170</v>
       </c>
-      <c r="C80" t="s">
-        <v>171</v>
-      </c>
-      <c r="D80" t="s">
-        <v>172</v>
-      </c>
       <c r="E80" t="s">
+        <v>177</v>
+      </c>
+      <c r="F80" t="s">
+        <v>178</v>
+      </c>
+      <c r="G80" t="s">
         <v>179</v>
-      </c>
-      <c r="F80" t="s">
-        <v>180</v>
-      </c>
-      <c r="G80" t="s">
-        <v>181</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3295,27 +3897,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
         <v>173</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>175</v>
       </c>
-      <c r="D81" t="s">
-        <v>177</v>
-      </c>
       <c r="E81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G81" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3324,27 +3926,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" t="s">
         <v>173</v>
       </c>
-      <c r="C82" t="s">
-        <v>175</v>
-      </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G82" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3353,27 +3955,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" t="s">
         <v>178</v>
       </c>
-      <c r="D83" t="s">
-        <v>177</v>
-      </c>
-      <c r="E83" t="s">
-        <v>179</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>180</v>
-      </c>
-      <c r="G83" t="s">
-        <v>182</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3382,24 +3984,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F84" t="s">
+        <v>178</v>
+      </c>
+      <c r="G84" t="s">
         <v>180</v>
-      </c>
-      <c r="G84" t="s">
-        <v>182</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3408,27 +4010,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B85" t="s">
         <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="F85" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="G85" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3437,34 +4039,1196 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" t="s">
         <v>187</v>
       </c>
       <c r="C86" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" t="s">
+        <v>98</v>
+      </c>
+      <c r="F86" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" t="s">
+        <v>101</v>
+      </c>
+      <c r="H86" t="s">
+        <v>25</v>
+      </c>
+      <c r="I86" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>98</v>
+      </c>
+      <c r="F87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
+        <v>101</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
         <v>188</v>
       </c>
-      <c r="E86" t="s">
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+      <c r="E89" t="s">
+        <v>101</v>
+      </c>
+      <c r="F89" t="s">
+        <v>101</v>
+      </c>
+      <c r="G89" t="s">
+        <v>101</v>
+      </c>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" t="s">
+        <v>101</v>
+      </c>
+      <c r="F90" t="s">
+        <v>101</v>
+      </c>
+      <c r="G90" t="s">
         <v>102</v>
       </c>
-      <c r="F86" t="s">
+      <c r="H90" t="s">
+        <v>25</v>
+      </c>
+      <c r="I90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" t="s">
+        <v>26</v>
+      </c>
+      <c r="H91" t="s">
+        <v>25</v>
+      </c>
+      <c r="I91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>28</v>
+      </c>
+      <c r="E92" t="s">
+        <v>98</v>
+      </c>
+      <c r="F92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" t="s">
+        <v>25</v>
+      </c>
+      <c r="I92" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>98</v>
+      </c>
+      <c r="F93" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" t="s">
+        <v>25</v>
+      </c>
+      <c r="I93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" t="s">
+        <v>101</v>
+      </c>
+      <c r="F94" t="s">
+        <v>101</v>
+      </c>
+      <c r="G94" t="s">
         <v>102</v>
       </c>
-      <c r="G86" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" t="s">
+      <c r="H94" t="s">
+        <v>25</v>
+      </c>
+      <c r="I94" t="s">
         <v>31</v>
       </c>
-      <c r="I86" t="s">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95" t="s">
+        <v>194</v>
+      </c>
+      <c r="E95" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" t="s">
+        <v>75</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>75</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>111</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>26</v>
+      </c>
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" t="s">
+        <v>98</v>
+      </c>
+      <c r="F98" t="s">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>101</v>
+      </c>
+      <c r="H98" t="s">
+        <v>196</v>
+      </c>
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" t="s">
+        <v>194</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" t="s">
+        <v>75</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F100" t="s">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>101</v>
+      </c>
+      <c r="H100" t="s">
+        <v>196</v>
+      </c>
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>197</v>
+      </c>
+      <c r="E101" t="s">
+        <v>98</v>
+      </c>
+      <c r="F101" t="s">
+        <v>22</v>
+      </c>
+      <c r="G101" t="s">
+        <v>101</v>
+      </c>
+      <c r="H101" t="s">
+        <v>196</v>
+      </c>
+      <c r="I101" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" t="s">
+        <v>98</v>
+      </c>
+      <c r="F102" t="s">
+        <v>101</v>
+      </c>
+      <c r="G102" t="s">
+        <v>102</v>
+      </c>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" t="s">
+        <v>98</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>101</v>
+      </c>
+      <c r="H103" t="s">
+        <v>196</v>
+      </c>
+      <c r="I103" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="E104" t="s">
+        <v>101</v>
+      </c>
+      <c r="F104" t="s">
+        <v>204</v>
+      </c>
+      <c r="G104" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" t="s">
+        <v>25</v>
+      </c>
+      <c r="I104" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" t="s">
+        <v>98</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>101</v>
+      </c>
+      <c r="H105" t="s">
+        <v>25</v>
+      </c>
+      <c r="I105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>192</v>
+      </c>
+      <c r="B106" t="s">
+        <v>203</v>
+      </c>
+      <c r="C106" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" t="s">
+        <v>98</v>
+      </c>
+      <c r="F106" t="s">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>101</v>
+      </c>
+      <c r="H106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" t="s">
+        <v>46</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" t="s">
+        <v>102</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>101</v>
+      </c>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>192</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>151</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>101</v>
+      </c>
+      <c r="H109" t="s">
+        <v>196</v>
+      </c>
+      <c r="I109" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" t="s">
+        <v>210</v>
+      </c>
+      <c r="E110" t="s">
+        <v>101</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>102</v>
+      </c>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>212</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F111" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>75</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" t="s">
+        <v>113</v>
+      </c>
+      <c r="D112" t="s">
+        <v>175</v>
+      </c>
+      <c r="E112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>75</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>218</v>
+      </c>
+      <c r="E114" t="s">
+        <v>98</v>
+      </c>
+      <c r="F114" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>127</v>
+      </c>
+      <c r="B115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" t="s">
+        <v>106</v>
+      </c>
+      <c r="D115" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>192</v>
+      </c>
+      <c r="B116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>220</v>
+      </c>
+      <c r="E116" t="s">
+        <v>98</v>
+      </c>
+      <c r="F116" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>101</v>
+      </c>
+      <c r="H116" t="s">
+        <v>25</v>
+      </c>
+      <c r="I116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>192</v>
+      </c>
+      <c r="B117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" t="s">
+        <v>220</v>
+      </c>
+      <c r="E117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" t="s">
+        <v>101</v>
+      </c>
+      <c r="G117" t="s">
+        <v>221</v>
+      </c>
+      <c r="H117" t="s">
+        <v>25</v>
+      </c>
+      <c r="I117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
+        <v>22</v>
+      </c>
+      <c r="G118" t="s">
+        <v>101</v>
+      </c>
+      <c r="H118" t="s">
+        <v>196</v>
+      </c>
+      <c r="I118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>192</v>
+      </c>
+      <c r="B119" t="s">
+        <v>224</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
+      </c>
+      <c r="E119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" t="s">
+        <v>122</v>
+      </c>
+      <c r="G119" t="s">
+        <v>122</v>
+      </c>
+      <c r="H119" t="s">
+        <v>25</v>
+      </c>
+      <c r="I119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>192</v>
+      </c>
+      <c r="B120" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" t="s">
+        <v>200</v>
+      </c>
+      <c r="E120" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" t="s">
+        <v>122</v>
+      </c>
+      <c r="G120" t="s">
+        <v>122</v>
+      </c>
+      <c r="H120" t="s">
+        <v>25</v>
+      </c>
+      <c r="I120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>192</v>
+      </c>
+      <c r="B121" t="s">
+        <v>224</v>
+      </c>
+      <c r="C121" t="s">
+        <v>220</v>
+      </c>
+      <c r="E121" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" t="s">
+        <v>122</v>
+      </c>
+      <c r="G121" t="s">
+        <v>101</v>
+      </c>
+      <c r="H121" t="s">
+        <v>25</v>
+      </c>
+      <c r="I121" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" t="s">
+        <v>224</v>
+      </c>
+      <c r="C122" t="s">
+        <v>200</v>
+      </c>
+      <c r="E122" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" t="s">
+        <v>122</v>
+      </c>
+      <c r="G122" t="s">
+        <v>101</v>
+      </c>
+      <c r="H122" t="s">
+        <v>25</v>
+      </c>
+      <c r="I122" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>192</v>
+      </c>
+      <c r="B123" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>101</v>
+      </c>
+      <c r="H123" t="s">
+        <v>196</v>
+      </c>
+      <c r="I123" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" t="s">
+        <v>37</v>
+      </c>
+      <c r="E124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" t="s">
+        <v>101</v>
+      </c>
+      <c r="G124" t="s">
+        <v>102</v>
+      </c>
+      <c r="H124" t="s">
+        <v>25</v>
+      </c>
+      <c r="I124" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="E125" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s">
+        <v>101</v>
+      </c>
+      <c r="H125" t="s">
+        <v>196</v>
+      </c>
+      <c r="I125" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>192</v>
+      </c>
+      <c r="B126" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" t="s">
+        <v>98</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>102</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>192</v>
+      </c>
+      <c r="B127" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" t="s">
+        <v>98</v>
+      </c>
+      <c r="F127" t="s">
+        <v>101</v>
+      </c>
+      <c r="G127" t="s">
+        <v>101</v>
+      </c>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>201</v>
+      </c>
+      <c r="C128" t="s">
+        <v>200</v>
+      </c>
+      <c r="E128" t="s">
+        <v>101</v>
+      </c>
+      <c r="F128" t="s">
+        <v>227</v>
+      </c>
+      <c r="G128" t="s">
+        <v>101</v>
+      </c>
+      <c r="H128" t="s">
+        <v>25</v>
+      </c>
+      <c r="I128" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" t="s">
+        <v>228</v>
+      </c>
+      <c r="C129" t="s">
+        <v>200</v>
+      </c>
+      <c r="E129" t="s">
+        <v>98</v>
+      </c>
+      <c r="F129" t="s">
+        <v>101</v>
+      </c>
+      <c r="G129" t="s">
+        <v>102</v>
+      </c>
+      <c r="H129" t="s">
+        <v>31</v>
+      </c>
+      <c r="I129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>228</v>
+      </c>
+      <c r="C130" t="s">
+        <v>131</v>
+      </c>
+      <c r="E130" t="s">
+        <v>98</v>
+      </c>
+      <c r="F130" t="s">
+        <v>101</v>
+      </c>
+      <c r="G130" t="s">
+        <v>102</v>
+      </c>
+      <c r="H130" t="s">
+        <v>31</v>
+      </c>
+      <c r="I130" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J79"/>
+  <autoFilter ref="A1:J114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3472,21 +5236,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C127"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G182" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9140625" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -3496,8 +5261,11 @@
       <c r="C1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -3507,8 +5275,11 @@
       <c r="C2" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -3518,8 +5289,11 @@
       <c r="C3" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -3529,10 +5303,13 @@
       <c r="C4" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -3540,76 +5317,97 @@
       <c r="C5" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
         <v>145</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1">
+        <v>44868.642800925925</v>
+      </c>
+      <c r="G6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1">
+        <v>44868.642800925925</v>
+      </c>
+      <c r="G7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1">
+        <v>44868.642800925925</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="1">
+        <v>44868.642800925925</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" s="1">
+        <v>44868.642800925925</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>151</v>
-      </c>
       <c r="C11" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
@@ -3617,43 +5415,55 @@
       <c r="C12" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s">
         <v>24</v>
@@ -3661,10 +5471,13 @@
       <c r="C16" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -3672,10 +5485,13 @@
       <c r="C17" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -3683,43 +5499,55 @@
       <c r="C18" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
@@ -3727,10 +5555,13 @@
       <c r="C22" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3738,10 +5569,13 @@
       <c r="C23" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
@@ -3749,10 +5583,13 @@
       <c r="C24" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -3760,10 +5597,13 @@
       <c r="C25" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -3771,10 +5611,13 @@
       <c r="C26" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
@@ -3782,30 +5625,39 @@
       <c r="C27" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3815,8 +5667,11 @@
       <c r="C30" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -3826,8 +5681,11 @@
       <c r="C31" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +5695,11 @@
       <c r="C32" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -3848,8 +5709,11 @@
       <c r="C33" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -3859,8 +5723,11 @@
       <c r="C34" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -3870,8 +5737,11 @@
       <c r="C35" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -3881,8 +5751,11 @@
       <c r="C36" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +5765,11 @@
       <c r="C37" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3903,8 +5779,11 @@
       <c r="C38" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -3914,30 +5793,39 @@
       <c r="C39" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="1">
         <v>44868.642800925925</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3948,7 +5836,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -3959,7 +5847,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -3970,7 +5858,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -3981,7 +5869,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -3992,51 +5880,51 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -4047,7 +5935,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -4058,20 +5946,20 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B54" t="s">
         <v>28</v>
@@ -4080,9 +5968,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
         <v>29</v>
@@ -4091,29 +5979,29 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -4124,7 +6012,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4135,7 +6023,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -4146,29 +6034,29 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C61" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -4179,7 +6067,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -4190,7 +6078,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -4201,7 +6089,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -4212,9 +6100,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -4223,9 +6111,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
@@ -4234,9 +6122,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B69" t="s">
         <v>28</v>
@@ -4245,18 +6133,18 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C70" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -4267,7 +6155,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4278,7 +6166,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -4289,9 +6177,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -4300,9 +6188,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -4311,9 +6199,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -4322,9 +6210,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -4333,9 +6221,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -4344,9 +6232,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" t="s">
         <v>28</v>
@@ -4355,75 +6243,75 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B80" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" t="s">
+      <c r="C81" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>158</v>
-      </c>
-      <c r="B82" t="s">
+      <c r="C82" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>156</v>
+      </c>
+      <c r="B83" t="s">
         <v>148</v>
       </c>
-      <c r="C82" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="C83" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B84" t="s">
         <v>149</v>
       </c>
-      <c r="C83" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>158</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1">
+        <v>44868.642800925925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" t="s">
         <v>150</v>
       </c>
-      <c r="C84" s="1">
-        <v>44868.642800925925</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>158</v>
-      </c>
-      <c r="B85" t="s">
-        <v>151</v>
-      </c>
       <c r="C85" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
         <v>37</v>
@@ -4432,42 +6320,42 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C88" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C89" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
@@ -4476,7 +6364,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -4487,7 +6375,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -4498,40 +6386,40 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C93" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>69</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>69</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C95" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -4542,7 +6430,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -4553,7 +6441,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -4564,7 +6452,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -4575,7 +6463,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -4586,7 +6474,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -4597,29 +6485,29 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>69</v>
       </c>
       <c r="B102" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C102" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>69</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C103" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -4630,7 +6518,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -4641,7 +6529,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -4652,7 +6540,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -4663,7 +6551,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -4674,7 +6562,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -4685,7 +6573,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -4696,7 +6584,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>71</v>
       </c>
@@ -4707,7 +6595,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -4718,7 +6606,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -4729,51 +6617,51 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>71</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C114" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>71</v>
       </c>
       <c r="B115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C116" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>71</v>
       </c>
       <c r="B117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C117" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -4784,7 +6672,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -4795,31 +6683,31 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>72</v>
       </c>
       <c r="B120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C120" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>72</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="1">
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4828,9 +6716,9 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
         <v>17</v>
@@ -4839,52 +6727,2102 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B124" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C124" s="1">
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>65</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125" s="1">
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>65</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C126" s="1">
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>69</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C127" s="1">
         <v>44869.592210648145</v>
       </c>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>152</v>
+      </c>
+      <c r="B128" t="s">
+        <v>194</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" t="s">
+        <v>151</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B131" t="s">
+        <v>197</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>61</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" t="s">
+        <v>200</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>61</v>
+      </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" t="s">
+        <v>202</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>62</v>
+      </c>
+      <c r="B141" t="s">
+        <v>45</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>63</v>
+      </c>
+      <c r="B143" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>64</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>67</v>
+      </c>
+      <c r="B148" t="s">
+        <v>37</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>146</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>67</v>
+      </c>
+      <c r="B152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>190</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157" t="s">
+        <v>190</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>205</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>205</v>
+      </c>
+      <c r="B159" t="s">
+        <v>191</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>205</v>
+      </c>
+      <c r="B160" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>200</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>69</v>
+      </c>
+      <c r="B162" t="s">
+        <v>194</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>70</v>
+      </c>
+      <c r="B163" t="s">
+        <v>151</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>70</v>
+      </c>
+      <c r="B164" t="s">
+        <v>37</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>70</v>
+      </c>
+      <c r="B165" t="s">
+        <v>197</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>70</v>
+      </c>
+      <c r="B166" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>70</v>
+      </c>
+      <c r="B167" t="s">
+        <v>146</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" t="s">
+        <v>202</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>71</v>
+      </c>
+      <c r="B169" t="s">
+        <v>45</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>72</v>
+      </c>
+      <c r="B170" t="s">
+        <v>37</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" t="s">
+        <v>190</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>157</v>
+      </c>
+      <c r="B173" t="s">
+        <v>191</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" t="s">
+        <v>200</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44871.593159722222</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>152</v>
+      </c>
+      <c r="B175" t="s">
+        <v>208</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44871.604664351849</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>69</v>
+      </c>
+      <c r="B176" t="s">
+        <v>208</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44871.604664351849</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" t="s">
+        <v>210</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
+        <v>154</v>
+      </c>
+      <c r="B178" t="s">
+        <v>210</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>205</v>
+      </c>
+      <c r="B179" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" s="3">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>72</v>
+      </c>
+      <c r="B181" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>157</v>
+      </c>
+      <c r="B182" t="s">
+        <v>210</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44871.608252314814</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183" t="s">
+        <v>152</v>
+      </c>
+      <c r="B183" t="s">
+        <v>215</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>69</v>
+      </c>
+      <c r="B184" t="s">
+        <v>215</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>152</v>
+      </c>
+      <c r="B185" t="s">
+        <v>216</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>69</v>
+      </c>
+      <c r="B186" t="s">
+        <v>216</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>152</v>
+      </c>
+      <c r="B187" t="s">
+        <v>217</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>69</v>
+      </c>
+      <c r="B188" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44871.731215277781</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>60</v>
+      </c>
+      <c r="B189" t="s">
+        <v>100</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" t="s">
+        <v>100</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>62</v>
+      </c>
+      <c r="B191" t="s">
+        <v>220</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>63</v>
+      </c>
+      <c r="B192" t="s">
+        <v>220</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A193" t="s">
+        <v>64</v>
+      </c>
+      <c r="B193" t="s">
+        <v>200</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A194" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" t="s">
+        <v>131</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>153</v>
+      </c>
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>65</v>
+      </c>
+      <c r="B196" t="s">
+        <v>28</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" t="s">
+        <v>100</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
+        <v>154</v>
+      </c>
+      <c r="B198" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" t="s">
+        <v>28</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>254</v>
+      </c>
+      <c r="B200" t="s">
+        <v>220</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
+        <v>255</v>
+      </c>
+      <c r="B201" t="s">
+        <v>220</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" t="s">
+        <v>220</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>257</v>
+      </c>
+      <c r="B203" t="s">
+        <v>220</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
+        <v>257</v>
+      </c>
+      <c r="B204" t="s">
+        <v>200</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>257</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
+        <v>258</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
+        <v>258</v>
+      </c>
+      <c r="B207" t="s">
+        <v>200</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>259</v>
+      </c>
+      <c r="B208" t="s">
+        <v>220</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
+        <v>259</v>
+      </c>
+      <c r="B209" t="s">
+        <v>200</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>259</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>260</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>261</v>
+      </c>
+      <c r="B212" t="s">
+        <v>200</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>262</v>
+      </c>
+      <c r="B213" t="s">
+        <v>200</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>70</v>
+      </c>
+      <c r="B214" t="s">
+        <v>100</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B215" t="s">
+        <v>220</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216" t="s">
+        <v>72</v>
+      </c>
+      <c r="B216" t="s">
+        <v>200</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>157</v>
+      </c>
+      <c r="B217" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>263</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>264</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>264</v>
+      </c>
+      <c r="B220" t="s">
+        <v>200</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>264</v>
+      </c>
+      <c r="B221" t="s">
+        <v>28</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>265</v>
+      </c>
+      <c r="B222" t="s">
+        <v>200</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44875.528402777774</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C123"/>
+  <autoFilter ref="A1:C222" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDCC9BF-36A3-4ED0-8272-F1042BA6670B}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="11.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" t="s">
+        <v>283</v>
+      </c>
+      <c r="F17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" t="s">
+        <v>283</v>
+      </c>
+      <c r="F18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" t="s">
+        <v>293</v>
+      </c>
+      <c r="F20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
+        <v>293</v>
+      </c>
+      <c r="F22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" t="s">
+        <v>297</v>
+      </c>
+      <c r="E23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D24" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>344</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" t="s">
+        <v>305</v>
+      </c>
+      <c r="F30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>358</v>
+      </c>
+      <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F31" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" t="s">
+        <v>305</v>
+      </c>
+      <c r="F33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" t="s">
+        <v>305</v>
+      </c>
+      <c r="F34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" t="s">
+        <v>305</v>
+      </c>
+      <c r="F35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" t="s">
+        <v>314</v>
+      </c>
+      <c r="F37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" t="s">
+        <v>316</v>
+      </c>
+      <c r="E38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" t="s">
+        <v>314</v>
+      </c>
+      <c r="F39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>357</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>314</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
+      <c r="D41" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" t="s">
+        <v>343</v>
+      </c>
+      <c r="D42" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" t="s">
+        <v>320</v>
+      </c>
+      <c r="F42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>347</v>
+      </c>
+      <c r="D43" t="s">
+        <v>246</v>
+      </c>
+      <c r="E43" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44" t="s">
+        <v>324</v>
+      </c>
+      <c r="E44" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" t="s">
+        <v>326</v>
+      </c>
+      <c r="E45" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" t="s">
+        <v>328</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+      <c r="E47" t="s">
+        <v>328</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" t="s">
+        <v>346</v>
+      </c>
+      <c r="D48" t="s">
+        <v>331</v>
+      </c>
+      <c r="E48" t="s">
+        <v>328</v>
+      </c>
+      <c r="F48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>356</v>
+      </c>
+      <c r="C49" t="s">
+        <v>345</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" t="s">
+        <v>328</v>
+      </c>
+      <c r="F49" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E50" t="s">
+        <v>328</v>
+      </c>
+      <c r="F50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" t="s">
+        <v>344</v>
+      </c>
+      <c r="D51" t="s">
+        <v>239</v>
+      </c>
+      <c r="E51" t="s">
+        <v>328</v>
+      </c>
+      <c r="F51" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F51" xr:uid="{BCDCC9BF-36A3-4ED0-8272-F1042BA6670B}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CF7AB4-F0E7-45A6-B5DF-7431AF02CA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="360">
   <si>
     <t>收录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1350,13 +1349,17 @@
   </si>
   <si>
     <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1692,21 +1695,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G130" sqref="G130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1738,7 +1741,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1920,7 +1923,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2053,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2253,7 +2256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +2282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2302,13 +2305,13 @@
         <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2363,7 +2366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2389,7 +2392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2415,7 +2418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2635,7 +2638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>184</v>
       </c>
@@ -2881,7 +2884,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -2907,7 +2910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -2933,7 +2936,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -3017,7 +3020,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -3214,7 +3217,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3246,7 +3249,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -3278,7 +3281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -3333,7 +3336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3385,7 +3388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3414,7 +3417,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3469,7 +3472,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -3495,7 +3498,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3521,7 +3524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -3605,7 +3608,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -3712,7 +3715,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3738,7 +3741,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -3764,7 +3767,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3790,7 +3793,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -3955,7 +3958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -3984,7 +3987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4010,7 +4013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>183</v>
       </c>
@@ -4039,7 +4042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -4065,7 +4068,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -4198,7 +4201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>192</v>
       </c>
@@ -4302,7 +4305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -4328,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -4380,7 +4383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -4536,7 +4539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -4562,7 +4565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -4617,7 +4620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -4643,7 +4646,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>212</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>212</v>
       </c>
@@ -4753,7 +4756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -4808,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -4863,7 +4866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -4915,7 +4918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -4967,7 +4970,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>192</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -5071,7 +5074,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>192</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>192</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>192</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -5175,7 +5178,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>192</v>
       </c>
@@ -5201,7 +5204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -5228,7 +5231,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J114"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5236,22 +5239,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G182" sqref="G1:G1048576"/>
+      <selection activeCell="G41" sqref="G1:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.9140625" customWidth="1"/>
-    <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -5265,7 +5268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5293,7 +5296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -5335,7 +5338,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -5419,7 +5422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -5447,7 +5450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -5475,7 +5478,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -5503,7 +5506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -5559,7 +5562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -5573,7 +5576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -5615,7 +5618,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -5643,7 +5646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -5657,7 +5660,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5699,7 +5702,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -5825,7 +5828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -5913,7 +5916,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -5935,7 +5938,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -5957,7 +5960,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5968,7 +5971,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5979,7 +5982,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5990,7 +5993,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -6001,7 +6004,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -6056,7 +6059,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -6067,7 +6070,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -6122,7 +6125,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -6133,7 +6136,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -6144,7 +6147,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -6177,7 +6180,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -6188,7 +6191,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -6210,7 +6213,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -6221,7 +6224,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -6287,7 +6290,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -6331,7 +6334,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -6353,7 +6356,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -6419,7 +6422,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -6441,7 +6444,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -6485,7 +6488,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -6518,7 +6521,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -6529,7 +6532,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -6540,7 +6543,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -6551,7 +6554,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -6562,7 +6565,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -6573,7 +6576,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -6584,7 +6587,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>71</v>
       </c>
@@ -6595,7 +6598,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -6628,7 +6631,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -6650,7 +6653,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -6661,7 +6664,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -6672,7 +6675,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -6683,7 +6686,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>157</v>
       </c>
@@ -6716,7 +6719,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>157</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>69</v>
       </c>
@@ -6771,7 +6774,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -6782,7 +6785,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -6793,7 +6796,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -6804,7 +6807,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -6815,7 +6818,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -6859,7 +6862,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -6881,7 +6884,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -6892,7 +6895,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -6903,7 +6906,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -6914,7 +6917,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>62</v>
       </c>
@@ -6925,7 +6928,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>62</v>
       </c>
@@ -6936,7 +6939,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>63</v>
       </c>
@@ -6947,7 +6950,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>64</v>
       </c>
@@ -6958,7 +6961,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>67</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>67</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>67</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>67</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>67</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -7057,7 +7060,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>68</v>
       </c>
@@ -7068,7 +7071,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>205</v>
       </c>
@@ -7101,7 +7104,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>205</v>
       </c>
@@ -7123,7 +7126,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -7134,7 +7137,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>69</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -7167,7 +7170,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -7178,7 +7181,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>70</v>
       </c>
@@ -7189,7 +7192,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>70</v>
       </c>
@@ -7211,7 +7214,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>70</v>
       </c>
@@ -7222,7 +7225,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>71</v>
       </c>
@@ -7233,7 +7236,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>72</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>157</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>157</v>
       </c>
@@ -7277,7 +7280,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>157</v>
       </c>
@@ -7288,7 +7291,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>152</v>
       </c>
@@ -7299,7 +7302,7 @@
         <v>44871.604664351849</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>69</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>44871.604664351849</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -7332,7 +7335,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>211</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>72</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>157</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>152</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>152</v>
       </c>
@@ -7409,7 +7412,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -7431,7 +7434,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>69</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -7453,7 +7456,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>64</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>64</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -7519,7 +7522,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>65</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>154</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7563,7 +7566,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>254</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>255</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>256</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>257</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>257</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>258</v>
       </c>
@@ -7651,7 +7654,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>259</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>259</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>259</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>260</v>
       </c>
@@ -7695,7 +7698,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>261</v>
       </c>
@@ -7706,7 +7709,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>262</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>70</v>
       </c>
@@ -7728,7 +7731,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>71</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>72</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>157</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>263</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -7794,7 +7797,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>265</v>
       </c>
@@ -7817,27 +7820,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C222" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:C222"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDCC9BF-36A3-4ED0-8272-F1042BA6670B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7874,7 +7877,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7894,7 +7897,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7911,7 +7914,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7991,7 +7994,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8071,7 +8074,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8088,7 +8091,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8108,7 +8111,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8125,7 +8128,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8182,7 +8185,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8202,7 +8205,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8296,7 +8299,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8316,7 +8319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8336,7 +8339,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8396,7 +8399,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8416,7 +8419,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8470,7 +8473,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8530,7 +8533,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8550,7 +8553,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8567,7 +8570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8607,7 +8610,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8627,7 +8630,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8664,7 +8667,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8701,7 +8704,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8721,7 +8724,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8741,7 +8744,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8761,7 +8764,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8801,7 +8804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8822,7 +8825,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51" xr:uid="{BCDCC9BF-36A3-4ED0-8272-F1042BA6670B}"/>
+  <autoFilter ref="A1:F51"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\mumuyys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D81D81-5EE3-4AFA-BEF7-90B9DD977C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
@@ -1359,7 +1360,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1695,7 +1696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1703,13 +1704,13 @@
       <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1793,7 +1794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1819,7 +1820,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -2001,7 +2002,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2085,7 +2086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2143,7 +2144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2172,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>35</v>
       </c>
@@ -2392,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -2473,7 +2474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -2638,7 +2639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -2667,7 +2668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>184</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>184</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -2965,7 +2966,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>184</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -3020,7 +3021,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>107</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>107</v>
       </c>
@@ -3075,7 +3076,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -3104,7 +3105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>107</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>127</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>134</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>134</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>139</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>139</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>139</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -3550,7 +3551,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>139</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>158</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>159</v>
       </c>
@@ -3715,7 +3716,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>159</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -3793,7 +3794,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>163</v>
       </c>
@@ -3845,7 +3846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -3929,7 +3930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>167</v>
       </c>
@@ -3958,7 +3959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>167</v>
       </c>
@@ -3987,7 +3988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>167</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>183</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>183</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>183</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>183</v>
       </c>
@@ -4123,7 +4124,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -4149,7 +4150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>183</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>192</v>
       </c>
@@ -4227,7 +4228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>192</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>192</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>192</v>
       </c>
@@ -4331,7 +4332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>192</v>
       </c>
@@ -4357,7 +4358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>192</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>192</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>192</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>192</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>207</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -4672,7 +4673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -4698,7 +4699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>212</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>212</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>107</v>
       </c>
@@ -4785,7 +4786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -4811,7 +4812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>192</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>192</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>192</v>
       </c>
@@ -4970,7 +4971,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>192</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>192</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>192</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>192</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>192</v>
       </c>
@@ -5100,7 +5101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>192</v>
       </c>
@@ -5126,7 +5127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>192</v>
       </c>
@@ -5152,7 +5153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>192</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>192</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>192</v>
       </c>
@@ -5231,7 +5232,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J114"/>
+  <autoFilter ref="A1:J114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5239,22 +5240,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G1:G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.9140625" customWidth="1"/>
+    <col min="3" max="3" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -5268,7 +5269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -5296,7 +5297,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -5310,7 +5311,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>144</v>
       </c>
@@ -5352,7 +5353,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>144</v>
       </c>
@@ -5366,7 +5367,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>144</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>144</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>144</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>144</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -5464,7 +5465,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>144</v>
       </c>
@@ -5478,7 +5479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>152</v>
       </c>
@@ -5492,7 +5493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -5534,7 +5535,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -5576,7 +5577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -5590,7 +5591,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -5604,7 +5605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>152</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>152</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>152</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -5688,7 +5689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -5716,7 +5717,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -5758,7 +5759,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -5814,7 +5815,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -5850,7 +5851,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>63</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>153</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>153</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>153</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -6059,7 +6060,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -6070,7 +6071,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>166</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>166</v>
       </c>
@@ -6125,7 +6126,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -6136,7 +6137,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>166</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -6158,7 +6159,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>68</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>154</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>205</v>
       </c>
@@ -6213,7 +6214,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>205</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>155</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>155</v>
       </c>
@@ -6246,7 +6247,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -6257,7 +6258,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>156</v>
       </c>
@@ -6268,7 +6269,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>156</v>
       </c>
@@ -6279,7 +6280,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>156</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>156</v>
       </c>
@@ -6312,7 +6313,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>156</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>156</v>
       </c>
@@ -6367,7 +6368,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>69</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>69</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>69</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>69</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>69</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>69</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>69</v>
       </c>
@@ -6477,7 +6478,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>69</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>69</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>70</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>70</v>
       </c>
@@ -6532,7 +6533,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>70</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>70</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -6565,7 +6566,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -6576,7 +6577,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -6587,7 +6588,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>71</v>
       </c>
@@ -6598,7 +6599,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -6609,7 +6610,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -6642,7 +6643,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>72</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>72</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>72</v>
       </c>
@@ -6697,7 +6698,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>72</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>157</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>157</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>44868.642800925925</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>152</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>65</v>
       </c>
@@ -6752,7 +6753,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>65</v>
       </c>
@@ -6763,7 +6764,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>69</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>44869.592210648145</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>60</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>60</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>60</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>60</v>
       </c>
@@ -6829,7 +6830,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>60</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>61</v>
       </c>
@@ -6862,7 +6863,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>61</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>61</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>61</v>
       </c>
@@ -6906,7 +6907,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>61</v>
       </c>
@@ -6917,7 +6918,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>62</v>
       </c>
@@ -6928,7 +6929,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>62</v>
       </c>
@@ -6939,7 +6940,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>63</v>
       </c>
@@ -6950,7 +6951,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>64</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>153</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>65</v>
       </c>
@@ -6983,7 +6984,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>67</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>67</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>67</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>67</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>67</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>67</v>
       </c>
@@ -7049,7 +7050,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -7060,7 +7061,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>68</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7082,7 +7083,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -7093,7 +7094,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>205</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -7115,7 +7116,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>205</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>205</v>
       </c>
@@ -7137,7 +7138,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -7148,7 +7149,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>69</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>70</v>
       </c>
@@ -7170,7 +7171,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>70</v>
       </c>
@@ -7181,7 +7182,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>70</v>
       </c>
@@ -7192,7 +7193,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>70</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>70</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>70</v>
       </c>
@@ -7225,7 +7226,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>71</v>
       </c>
@@ -7236,7 +7237,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>72</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>157</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>157</v>
       </c>
@@ -7269,7 +7270,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>157</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>157</v>
       </c>
@@ -7291,7 +7292,7 @@
         <v>44871.593159722222</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>152</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>44871.604664351849</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>69</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>44871.604664351849</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>153</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>154</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -7346,7 +7347,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>211</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>72</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>157</v>
       </c>
@@ -7379,7 +7380,7 @@
         <v>44871.608252314814</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>152</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>69</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>152</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>69</v>
       </c>
@@ -7423,7 +7424,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>152</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>69</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>44871.731215277781</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>60</v>
       </c>
@@ -7456,7 +7457,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>61</v>
       </c>
@@ -7467,7 +7468,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>62</v>
       </c>
@@ -7478,7 +7479,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>63</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>64</v>
       </c>
@@ -7500,7 +7501,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>64</v>
       </c>
@@ -7511,7 +7512,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>153</v>
       </c>
@@ -7522,7 +7523,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>65</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>67</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>154</v>
       </c>
@@ -7555,7 +7556,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -7566,7 +7567,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>254</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>255</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>256</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>257</v>
       </c>
@@ -7610,7 +7611,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>257</v>
       </c>
@@ -7632,7 +7633,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>258</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>258</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>259</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>259</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>259</v>
       </c>
@@ -7687,7 +7688,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>260</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>261</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>262</v>
       </c>
@@ -7720,7 +7721,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>70</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>71</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>72</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>157</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>263</v>
       </c>
@@ -7775,7 +7776,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>264</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>264</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>264</v>
       </c>
@@ -7808,7 +7809,7 @@
         <v>44875.528402777774</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>265</v>
       </c>
@@ -7820,14 +7821,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C222"/>
+  <autoFilter ref="A1:C222" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7835,12 +7836,12 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>336</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7877,7 +7878,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7914,7 +7915,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8014,7 +8015,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8034,7 +8035,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8074,7 +8075,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8128,7 +8129,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8165,7 +8166,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8185,7 +8186,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -8359,7 +8360,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8436,7 +8437,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -8513,7 +8514,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -8553,7 +8554,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8570,7 +8571,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8590,7 +8591,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8630,7 +8631,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8650,7 +8651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8825,7 +8826,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F51"/>
+  <autoFilter ref="A1:F51" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/yuhun.xlsx
+++ b/yuhun.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee\Documents\GitHub\mumuyys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D81D81-5EE3-4AFA-BEF7-90B9DD977C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED630C92-F92D-44B6-897C-E573F446B99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御魂方案" sheetId="1" r:id="rId1"/>
     <sheet name="强化方案" sheetId="2" r:id="rId2"/>
     <sheet name="御魂介绍" sheetId="3" r:id="rId3"/>
+    <sheet name="套装" sheetId="4" r:id="rId4"/>
+    <sheet name="方案" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">强化方案!$A$1:$C$182</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">御魂方案!$A$1:$J$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">御魂方案!$A$1:$J$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">御魂介绍!$A$1:$F$51</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="372">
   <si>
     <t>收录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -901,10 +903,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辉夜姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1354,6 +1352,58 @@
   </si>
   <si>
     <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御魂套装1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御魂套装2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副属性1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副属性2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副属性3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副属性4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指标2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1699,9 +1749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2309,7 +2359,7 @@
         <v>13</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -4846,7 +4896,7 @@
         <v>192</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C116" t="s">
         <v>220</v>
@@ -4884,7 +4934,7 @@
         <v>101</v>
       </c>
       <c r="G117" t="s">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="H117" t="s">
         <v>25</v>
@@ -4924,7 +4974,7 @@
         <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
         <v>220</v>
@@ -4950,7 +5000,7 @@
         <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
         <v>200</v>
@@ -4976,7 +5026,7 @@
         <v>192</v>
       </c>
       <c r="B121" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C121" t="s">
         <v>220</v>
@@ -5002,7 +5052,7 @@
         <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C122" t="s">
         <v>200</v>
@@ -5080,7 +5130,7 @@
         <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C125" t="s">
         <v>146</v>
@@ -5167,7 +5217,7 @@
         <v>101</v>
       </c>
       <c r="F128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G128" t="s">
         <v>101</v>
@@ -5184,7 +5234,7 @@
         <v>192</v>
       </c>
       <c r="B129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C129" t="s">
         <v>200</v>
@@ -5210,7 +5260,7 @@
         <v>192</v>
       </c>
       <c r="B130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C130" t="s">
         <v>131</v>
@@ -5232,7 +5282,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:J130" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5243,7 +5293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="G41" sqref="G1:G41"/>
     </sheetView>
   </sheetViews>
@@ -5672,7 +5722,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -5686,7 +5736,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -5700,7 +5750,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -5714,7 +5764,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -5728,7 +5778,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -5742,7 +5792,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -5756,7 +5806,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -5770,7 +5820,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -5784,7 +5834,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -5798,7 +5848,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -5812,7 +5862,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -5826,7 +5876,7 @@
         <v>44868.642800925925</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -7569,7 +7619,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B200" t="s">
         <v>220</v>
@@ -7580,7 +7630,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B201" t="s">
         <v>220</v>
@@ -7591,7 +7641,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
         <v>220</v>
@@ -7602,7 +7652,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
         <v>220</v>
@@ -7613,7 +7663,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B204" t="s">
         <v>200</v>
@@ -7624,7 +7674,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B205" t="s">
         <v>28</v>
@@ -7635,7 +7685,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B206" t="s">
         <v>220</v>
@@ -7646,7 +7696,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B207" t="s">
         <v>200</v>
@@ -7657,7 +7707,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B208" t="s">
         <v>220</v>
@@ -7668,7 +7718,7 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
         <v>200</v>
@@ -7679,7 +7729,7 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B210" t="s">
         <v>28</v>
@@ -7690,7 +7740,7 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B211" t="s">
         <v>28</v>
@@ -7701,7 +7751,7 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B212" t="s">
         <v>200</v>
@@ -7712,7 +7762,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B213" t="s">
         <v>200</v>
@@ -7767,7 +7817,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B218" t="s">
         <v>220</v>
@@ -7778,7 +7828,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -7789,7 +7839,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B220" t="s">
         <v>200</v>
@@ -7800,7 +7850,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B221" t="s">
         <v>28</v>
@@ -7811,7 +7861,7 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B222" t="s">
         <v>200</v>
@@ -7843,22 +7893,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>267</v>
-      </c>
-      <c r="F1" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -7866,16 +7916,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" t="s">
         <v>337</v>
-      </c>
-      <c r="E2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -7883,19 +7933,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" t="s">
         <v>270</v>
-      </c>
-      <c r="F3" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -7903,16 +7953,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" t="s">
         <v>272</v>
-      </c>
-      <c r="E4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -7923,16 +7973,16 @@
         <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -7943,16 +7993,16 @@
         <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -7963,16 +8013,16 @@
         <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
@@ -7983,16 +8033,16 @@
         <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" t="s">
         <v>277</v>
-      </c>
-      <c r="E8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
@@ -8003,16 +8053,16 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E9" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" t="s">
         <v>279</v>
-      </c>
-      <c r="E9" t="s">
-        <v>270</v>
-      </c>
-      <c r="F9" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
@@ -8023,16 +8073,16 @@
         <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
@@ -8043,16 +8093,16 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
@@ -8060,19 +8110,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" t="s">
         <v>283</v>
-      </c>
-      <c r="F12" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
@@ -8080,16 +8130,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
@@ -8100,16 +8150,16 @@
         <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D14" t="s">
         <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -8117,16 +8167,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -8137,16 +8187,16 @@
         <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -8154,16 +8204,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
@@ -8174,16 +8224,16 @@
         <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
@@ -8194,16 +8244,16 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" t="s">
         <v>291</v>
-      </c>
-      <c r="E19" t="s">
-        <v>283</v>
-      </c>
-      <c r="F19" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
@@ -8211,19 +8261,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E20" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" t="s">
         <v>293</v>
-      </c>
-      <c r="F20" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
@@ -8231,16 +8281,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
@@ -8251,16 +8301,16 @@
         <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
@@ -8268,16 +8318,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" t="s">
+        <v>296</v>
+      </c>
+      <c r="E23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" t="s">
         <v>297</v>
-      </c>
-      <c r="E23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
@@ -8288,16 +8338,16 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
@@ -8308,16 +8358,16 @@
         <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
@@ -8328,16 +8378,16 @@
         <v>54</v>
       </c>
       <c r="C26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D26" t="s">
+        <v>300</v>
+      </c>
+      <c r="E26" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" t="s">
         <v>301</v>
-      </c>
-      <c r="E26" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -8348,16 +8398,16 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
@@ -8368,16 +8418,16 @@
         <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
@@ -8385,19 +8435,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
         <v>114</v>
       </c>
       <c r="E29" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" t="s">
         <v>305</v>
-      </c>
-      <c r="F29" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
@@ -8408,16 +8458,16 @@
         <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D30" t="s">
         <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
@@ -8425,16 +8475,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D31" t="s">
         <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -8442,16 +8492,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D32" t="s">
         <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F32" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
@@ -8462,16 +8512,16 @@
         <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D33" t="s">
         <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
@@ -8482,16 +8532,16 @@
         <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D34" t="s">
         <v>119</v>
       </c>
       <c r="E34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
@@ -8502,16 +8552,16 @@
         <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D35" t="s">
         <v>87</v>
       </c>
       <c r="E35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
@@ -8522,16 +8572,16 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D36" t="s">
         <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
@@ -8539,19 +8589,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>348</v>
+      </c>
+      <c r="C37" t="s">
         <v>349</v>
       </c>
-      <c r="C37" t="s">
-        <v>350</v>
-      </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" t="s">
         <v>314</v>
-      </c>
-      <c r="F37" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -8559,16 +8609,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D38" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" t="s">
+        <v>313</v>
+      </c>
+      <c r="F38" t="s">
         <v>316</v>
-      </c>
-      <c r="E38" t="s">
-        <v>314</v>
-      </c>
-      <c r="F38" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -8579,16 +8629,16 @@
         <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
@@ -8599,16 +8649,16 @@
         <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -8616,19 +8666,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D41" t="s">
         <v>218</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -8639,16 +8689,16 @@
         <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D42" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F42" t="s">
         <v>321</v>
-      </c>
-      <c r="E42" t="s">
-        <v>320</v>
-      </c>
-      <c r="F42" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
@@ -8656,16 +8706,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -8673,16 +8723,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" t="s">
+        <v>323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" t="s">
         <v>324</v>
-      </c>
-      <c r="E44" t="s">
-        <v>320</v>
-      </c>
-      <c r="F44" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -8693,16 +8743,16 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" t="s">
         <v>326</v>
-      </c>
-      <c r="E45" t="s">
-        <v>320</v>
-      </c>
-      <c r="F45" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
@@ -8710,19 +8760,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D46" t="s">
         <v>174</v>
       </c>
       <c r="E46" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" t="s">
         <v>328</v>
-      </c>
-      <c r="F46" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -8730,19 +8780,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C47" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
@@ -8750,19 +8800,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C48" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D48" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" t="s">
+        <v>327</v>
+      </c>
+      <c r="F48" t="s">
         <v>331</v>
-      </c>
-      <c r="E48" t="s">
-        <v>328</v>
-      </c>
-      <c r="F48" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -8770,19 +8820,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F49" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -8790,19 +8840,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" t="s">
         <v>356</v>
       </c>
-      <c r="C50" t="s">
-        <v>357</v>
-      </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E50" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F50" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -8810,19 +8860,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C51" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E51" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F51" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -8830,4 +8880,419 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52AE7240-1208-47E2-9FA4-0A49A15B44C2}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932D60CC-EBC7-4BA7-90C8-2174F6FE3343}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>368</v>
+      </c>
+      <c r="D7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>